--- a/CBDN/CBDN/Tem/Bieu_thong_ke_TTDN_tram.xlsx
+++ b/CBDN/CBDN/Tem/Bieu_thong_ke_TTDN_tram.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1.Code\GNDN\CBDN\CBDN\Tem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="27792" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TTĐN các TBA chênh lệch giữa 2 tháng liền kề</t>
   </si>
@@ -52,13 +57,16 @@
     <t>So sánh</t>
   </si>
   <si>
-    <t>11=(9-10)</t>
+    <t>TTĐN tháng hiện tại (kWh)</t>
+  </si>
+  <si>
+    <t>12=(9-10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -103,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -165,6 +173,15 @@
       </right>
       <top/>
       <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -184,14 +201,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -202,6 +219,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -250,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +305,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,42 +514,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="11.69921875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="12.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -561,45 +583,51 @@
         <v>7</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>6</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>7</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>8</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>9</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>10</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="6">
+        <v>11</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -611,8 +639,9 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -624,8 +653,9 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -637,8 +667,9 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -650,8 +681,9 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -663,8 +695,9 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -676,8 +709,9 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -689,8 +723,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -702,10 +737,11 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
